--- a/data/test_agent.xlsx
+++ b/data/test_agent.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="266">
   <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
@@ -229,10 +229,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019/11/11-17:41:48</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>参数代码里随机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -254,14 +250,6 @@
   </si>
   <si>
     <t>{"contact":"一级客户1","email":"13323132313@qq.com","mobile":"13323132313","address":"二七区","nickName":"一级客户1","realName":"一级客户01","province":"41","city":"4101","district":"410103","schoolType": "7"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11-17:41:55</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -290,10 +278,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019/11/11-17:42:04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>地址后tenant_id=31固定</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -319,18 +303,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>400 (参数绑定异常 agentType)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>fail</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019/11/11-17:42:13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tid（租户id）=31</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -383,10 +359,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019/11/11-17:42:32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>客户购买课时</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -403,14 +375,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11-17:42:42</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>客户列表导出</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -419,10 +383,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019/11/11-17:43:02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>查看客户班课记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -439,10 +399,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019/11/11-17:43:12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>查看所有课程商品列表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -459,10 +415,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>查看所有课程列表课程详情</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -495,10 +447,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>查看客户已购商品课程详情</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -527,14 +475,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11-18:17:28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>新增客户管理员查询已有客户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -547,10 +487,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019/11/11-18:17:43</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>新增客户管理员</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -567,14 +503,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11-18:17:59</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>修改客户管理员</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -588,14 +516,6 @@
   </si>
   <si>
     <t>e/ap/v1/admins/150</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":150,"loginName":"wanghn1j-01-1","realName":"一级客户01","nickName":"一级客户1","tenantName":"一级客户01","mobile":"13323132313","email":"13323132313@qq.com","primaryAgent":"河南一级代理（勿动）","secondAgent":"","thirdAgent":"","verifiedMobile":0,"agentId":33,"tid":31,"adminRole":null,"createTime":"2019-10-09 07:06:07"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11-18:18:11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -616,91 +536,242 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>查询代理商管理员列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/agentaccounts?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增代理商管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/agentaccounts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改代理商管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/agentaccounts/33</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南一级代理（勿动）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商重置密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/agentaccounts/resetpassword/33</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看消息通知列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/notice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页查询代理商基本信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/agentinfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页查询代理商充值记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/recharges?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页查看消息数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/noticeReceivers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看客户列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/tenants?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计注册用户数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增注册用户数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增激活用户数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增付费用户数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计注册学校数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增注册学校数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增激活学校数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增付费学校数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7日 | 每日新增用户数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7日 | 用户角色分布</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商excel导出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/exportagents</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/profile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时清零过期班课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/ap/v1/expirepermits</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":150,"loginName":"wanghn1j-01-1","realName":"一级客户01","nickName":"一级客户1","tenantName":"一级客户01","mobile":"13323132313","email":"13323132313@qq.com","primaryAgent":"河南一级代理（勿动）","secondAgent":"","thirdAgent":"","verifiedMobile":0,"agentId":33,"tid":31,"adminRole":null,"createTime":"2019-10-09 07:06:07"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{"password":"111111","confirmPwd":"111111"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11-18:18:27</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询代理商管理员列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/agentaccounts?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageIndex=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":33,"agentId":33,"name":"河南（勿动）","account":"jdtest-hd06","accountId":"50b2bc6f-d55c-470a-97b1-065b24a4fe8f","contact":"13400000000","email":null,"type":1,"status":1,"createTime":"2019-09-12 11:35:14","updateTime":"2019-09-29 15:58:57","opUserId":13,"password":null,"verifiedMobile":0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password":"1234","confirmPwd":"1234"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'email': '13323132313@qq.com', 'password': '111111', 'confirmPwd': '111111', 'mobile': '13323132313', 'userName': 'yijikehu631-631', 'tenantId': 31, 'realName': 'real姓名', 'nickName': 'nick姓名'}</t>
+  </si>
+  <si>
+    <t>{"email": "13323132313@qq.com", "password": "111111", "confirmPwd": "111111", "mobile": "13323132313", "userName": "yijikehu563-563", "tenantId": 31, "realName": "real\u59d3\u540d", "nickName": "nick\u59d3\u540d"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019/11/11-18:18:45</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增代理商管理员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/agentaccounts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11-18:19:05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改代理商管理员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/agentaccounts/33</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":33,"agentId":33,"name":"河南（勿动）","account":"jdtest-hd06","accountId":"50b2bc6f-d55c-470a-97b1-065b24a4fe8f","contact":"13400000000","email":null,"type":1,"status":1,"createTime":"2019-09-12 11:35:14","updateTime":"2019-09-29 15:58:57","opUserId":13,"password":null,"verifiedMobile":0}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11-18:19:17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南一级代理（勿动）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商重置密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/agentaccounts/resetpassword/33</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"password":"1234","confirmPwd":"1234"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11-18:19:44</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看消息通知列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/notice</t>
+    <t>{'email': '13323132313@qq.com', 'password': '111111', 'confirmPwd': '111111', 'contact': '13323132313', 'account': 'yiji12312313', 'name': 'real姓名'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:51:15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -708,170 +779,333 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019/11/11-18:20:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页查询代理商基本信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/agentinfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页查询代理商充值记录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/recharges?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页查看消息数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/noticeReceivers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看客户列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/tenants?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11-17:42:52</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计注册用户数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/report</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增注册用户数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增激活用户数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增付费用户数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/report</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计注册学校数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增注册学校数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/report</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增激活学校数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/report</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增付费学校数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/report</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7日 | 每日新增用户数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7日 | 用户角色分布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商excel导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>e/ap/v1/exportagents</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500 (已购买课程商品班课数记录不存在。)</t>
+    <t>2020/02/11-19:51:21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email": "13323132313@qq.com", "password": "111111", "confirmPwd": "111111", "mobile": "13323132313", "userName": "yijikehu933-933", "tenantId": 31, "realName": "real\u59d3\u540d", "nickName": "nick\u59d3\u540d"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2020/02/11-19:51:28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:51:34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:51:45</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:51:50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"email": "13323132313@qq.com", "password": "111111", "confirmPwd": "111111", "contact": "13323132313", "account": "yjgl933-933", "name": "real\u59d3\u540d"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:51:57</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:52:03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:52:09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:52:14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:58:02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:58:08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:58:14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:58:19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:58:25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 (代理商充值记录已过期。)</t>
+  </si>
+  <si>
+    <t>2020/02/11-19:58:36</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:58:38</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:58:44</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-19:58:49</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name": "yijikehu677-677", "nickName": "nick\u6635\u79f0", "realName": "real\u59d3\u540d", "accountType": 1, "code": "", "contact": "real\u59d3\u540d", "email": "13323132313@qq.com", "password": "111111", "confirmPwd": "111111", "mobile": "13323132313", "province": "41", "city": "4101", "district": "410103", "address": "\u4e8c\u4e03\u533a", "account": "wanghn1j677-677", "schoolType": "3"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-20:18:09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-20:18:26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-20:18:36</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-20:18:42</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-20:18:48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-20:18:54</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 (设置客户班课数失败,代理商剩余课时数不足)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-20:19:05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-20:19:08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-20:19:14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-20:19:20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1002, "startDate": "", "endDate": "2020-02-10"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:18:09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1002, "startDate": "2020-02-04", "endDate": "2020-02-10"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:18:19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1001, "startDate": "2020-02-04", "endDate": "2020-02-10"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:18:29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1003, "startDate": "2020-02-04", "endDate": "2020-02-10"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:18:38</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1007, "startDate": "", "endDate": "2020-02-10"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:18:48</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1008, "startDate": "2020-02-04", "endDate": "2020-02-10"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:18:57</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1009, "startDate": "2020-02-04", "endDate": "2020-02-10"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:19:07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1010, "startDate": "2020-02-04", "endDate": "2020-02-10"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:19:19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1004, "startDate": "2020-02-04", "endDate": "2020-02-10", "params": [{"param": "role", "value": ""}, {"param": "detail", "value": "1"}, {"param": "period", "value": "day"}]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:19:29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"eventId": 1005, "startDate": "2020-02-04", "endDate": "2020-02-10", "params": [{"param": "field", "value": "registerNum"}, {"param": "detail", "value": "1"}, {"param": "period", "value": "day"}]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:19:39</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-22:19:45</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>401 (当前登录用户已失效，请重新登录)</t>
   </si>
   <si>
     <t>fail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:03:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:07:08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:07:12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:07:18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-23:13:56</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -879,191 +1113,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2019/12/06-15:07:22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eventId": 1002, "startDate": "", "endDate": "2019-12-05", "type": 0}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:16:03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eventId": 1002, "startDate": "2019-11-29", "endDate": "2019-12-05", "type": 1}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:16:12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eventId": 1001, "startDate": "2019-11-29", "endDate": "2019-12-05", "type": 2}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:16:17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eventId": 1003, "startDate": "2019-11-29", "endDate": "2019-12-05", "type": 3}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:16:38</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eventId": 1007, "startDate": "", "endDate": "2019-12-05", "type": 4}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:16:49</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eventId": 1008, "startDate": "2019-11-29", "endDate": "2019-12-05", "type": 5}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:17:07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eventId": 1009, "startDate": "2019-11-29", "endDate": "2019-12-05", "type": 6}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:17:16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eventId": 1010, "startDate": "2019-11-29", "endDate": "2019-12-05", "type": 7}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:17:34</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eventId": 1004, "startDate": "2019-11-29", "endDate": "2019-12-05", "type": 8, "params": [{"param": "userRole", "value": ""}]}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:17:40</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"eventId": 1005, "startDate": "2019-11-29", "endDate": "2019-12-05", "type": 9, "params": [{"param": "registerType", "value": 1}]}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:17:55</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:17:59</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:20:45</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:20:49</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:21:02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:21:06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:21:12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:21:19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:21:23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:21:36</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/12/06-15:21:40</t>
+    <t>2020/02/11-23:14:07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-23:14:14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/02/11-23:14:22</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1469,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1480,7 +1546,7 @@
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="51.25" customWidth="1"/>
-    <col min="6" max="6" width="28.08203125" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
     <col min="7" max="7" width="11.58203125" customWidth="1"/>
     <col min="8" max="8" width="27.08203125" customWidth="1"/>
     <col min="9" max="9" width="28.33203125" customWidth="1"/>
@@ -1551,10 +1617,10 @@
         <v>200</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>18</v>
@@ -1586,10 +1652,10 @@
         <v>200</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -1618,10 +1684,10 @@
         <v>200</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -1650,10 +1716,10 @@
         <v>200</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -1682,10 +1748,10 @@
         <v>200</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="65" x14ac:dyDescent="0.35">
@@ -1710,14 +1776,14 @@
       <c r="G7" s="5">
         <v>200</v>
       </c>
-      <c r="H7" s="5">
-        <v>200</v>
+      <c r="H7" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>35</v>
@@ -1742,7 +1808,9 @@
       <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="G8" s="5">
         <v>200</v>
       </c>
@@ -1753,10 +1821,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="91" x14ac:dyDescent="0.35">
@@ -1764,37 +1832,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="5">
+        <v>200</v>
+      </c>
+      <c r="H9" s="5">
+        <v>200</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="5">
-        <v>200</v>
-      </c>
-      <c r="H9" s="5">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="39.5" x14ac:dyDescent="0.35">
@@ -1802,37 +1870,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" s="5">
+        <v>200</v>
+      </c>
+      <c r="H10" s="5">
+        <v>200</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="L10" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="5">
-        <v>200</v>
-      </c>
-      <c r="H10" s="5">
-        <v>200</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.5" x14ac:dyDescent="0.35">
@@ -1840,34 +1908,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="5">
+        <v>200</v>
+      </c>
+      <c r="H11" s="5">
+        <v>200</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="5">
-        <v>200</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="39.5" x14ac:dyDescent="0.35">
@@ -1875,37 +1943,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="5">
+        <v>200</v>
+      </c>
+      <c r="H12" s="5">
+        <v>200</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="5">
-        <v>200</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -1913,19 +1981,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G13" s="5">
         <v>200</v>
@@ -1934,10 +2002,10 @@
         <v>200</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39" x14ac:dyDescent="0.35">
@@ -1945,31 +2013,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G14" s="5">
         <v>200</v>
       </c>
-      <c r="H14" s="5">
-        <v>200</v>
+      <c r="H14" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -1977,16 +2045,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5">
@@ -1996,10 +2064,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="L15" s="5"/>
     </row>
@@ -2008,19 +2076,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5">
         <v>200</v>
@@ -2029,43 +2097,43 @@
         <v>200</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G17" s="5">
         <v>200</v>
       </c>
-      <c r="H17" s="5">
-        <v>200</v>
+      <c r="H17" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="L17" s="5"/>
     </row>
@@ -2074,67 +2142,67 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5">
         <v>200</v>
       </c>
-      <c r="H18" s="5">
-        <v>200</v>
+      <c r="H18" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5">
         <v>200</v>
       </c>
-      <c r="H19" s="5">
-        <v>200</v>
+      <c r="H19" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="L19" s="5"/>
     </row>
@@ -2143,31 +2211,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G20" s="5">
         <v>200</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="L20" s="5"/>
     </row>
@@ -2176,19 +2244,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G21" s="5">
         <v>200</v>
@@ -2197,10 +2265,10 @@
         <v>200</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -2209,16 +2277,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="5">
@@ -2228,30 +2296,32 @@
         <v>200</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="91" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="G23" s="5">
         <v>200</v>
       </c>
@@ -2259,10 +2329,10 @@
         <v>200</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="143" x14ac:dyDescent="0.35">
@@ -2270,19 +2340,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="G24" s="5">
         <v>200</v>
@@ -2291,13 +2361,13 @@
         <v>200</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="26" x14ac:dyDescent="0.35">
@@ -2305,19 +2375,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="G25" s="5">
         <v>200</v>
@@ -2326,10 +2396,10 @@
         <v>200</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="L25" s="5"/>
     </row>
@@ -2338,19 +2408,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="G26" s="5">
         <v>200</v>
@@ -2359,30 +2429,32 @@
         <v>200</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="65" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="G27" s="5">
         <v>200</v>
       </c>
@@ -2390,10 +2462,10 @@
         <v>200</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="130" x14ac:dyDescent="0.35">
@@ -2401,19 +2473,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="G28" s="5">
         <v>200</v>
@@ -2422,13 +2494,13 @@
         <v>200</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="26" x14ac:dyDescent="0.35">
@@ -2436,19 +2508,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G29" s="5">
         <v>200</v>
@@ -2457,10 +2529,10 @@
         <v>200</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -2468,16 +2540,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5">
@@ -2487,10 +2559,10 @@
         <v>200</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -2498,16 +2570,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="5">
@@ -2517,10 +2589,10 @@
         <v>200</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -2528,16 +2600,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5">
@@ -2547,10 +2619,10 @@
         <v>200</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2558,19 +2630,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G33" s="5">
         <v>200</v>
@@ -2579,10 +2651,10 @@
         <v>200</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2590,19 +2662,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G34" s="5">
         <v>200</v>
@@ -2611,10 +2683,10 @@
         <v>200</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2631,19 +2703,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="G36" s="5">
         <v>200</v>
@@ -2652,30 +2724,30 @@
         <v>200</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="G37" s="5">
         <v>200</v>
@@ -2684,30 +2756,30 @@
         <v>200</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="G38" s="5">
         <v>200</v>
@@ -2716,30 +2788,30 @@
         <v>200</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="G39" s="5">
         <v>200</v>
@@ -2748,10 +2820,10 @@
         <v>200</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -2759,19 +2831,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G40" s="5">
         <v>200</v>
@@ -2780,30 +2852,30 @@
         <v>200</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="G41" s="5">
         <v>200</v>
@@ -2812,30 +2884,30 @@
         <v>200</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="G42" s="5">
         <v>200</v>
@@ -2844,30 +2916,30 @@
         <v>200</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="G43" s="5">
         <v>200</v>
@@ -2876,30 +2948,30 @@
         <v>200</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="52" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="65" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G44" s="5">
         <v>200</v>
@@ -2908,30 +2980,30 @@
         <v>200</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="52" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="78" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="G45" s="5">
         <v>200</v>
@@ -2940,10 +3012,10 @@
         <v>200</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2951,16 +3023,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="5">
@@ -2970,105 +3042,138 @@
         <v>200</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H47" s="11"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="H48" s="11"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H50" s="11"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H51" s="11"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H52" s="11"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
     </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
     </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
     </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
     </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
     </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>171</v>
+      </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
     </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>172</v>
+      </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:9" x14ac:dyDescent="0.3">
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>174</v>
+      </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:9" x14ac:dyDescent="0.3">
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
     </row>
